--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3701.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3701.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.376338799594893</v>
+        <v>1.022520065307617</v>
       </c>
       <c r="B1">
-        <v>2.84224739584365</v>
+        <v>3.454584121704102</v>
       </c>
       <c r="C1">
-        <v>7.465383603815866</v>
+        <v>4.533708095550537</v>
       </c>
       <c r="D1">
-        <v>1.947713877463126</v>
+        <v>2.05327320098877</v>
       </c>
       <c r="E1">
-        <v>1.003194720591718</v>
+        <v>1.606835126876831</v>
       </c>
     </row>
   </sheetData>
